--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tgfb2-Tgfbr1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H2">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I2">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J2">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N2">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O2">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P2">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q2">
-        <v>31.16361529955235</v>
+        <v>34.389386131552</v>
       </c>
       <c r="R2">
-        <v>31.16361529955235</v>
+        <v>137.557544526208</v>
       </c>
       <c r="S2">
-        <v>0.005512153656764224</v>
+        <v>0.004578417797441448</v>
       </c>
       <c r="T2">
-        <v>0.005512153656764224</v>
+        <v>0.002677891064331418</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H3">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I3">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J3">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N3">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O3">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P3">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q3">
-        <v>27.1472349423964</v>
+        <v>31.042250498217</v>
       </c>
       <c r="R3">
-        <v>27.1472349423964</v>
+        <v>186.253502989302</v>
       </c>
       <c r="S3">
-        <v>0.004801744884872755</v>
+        <v>0.004132798172377795</v>
       </c>
       <c r="T3">
-        <v>0.004801744884872755</v>
+        <v>0.003625875942125806</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H4">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I4">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J4">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N4">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O4">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P4">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q4">
-        <v>117.5178159482595</v>
+        <v>156.6579275533503</v>
       </c>
       <c r="R4">
-        <v>117.5178159482595</v>
+        <v>939.9475653201021</v>
       </c>
       <c r="S4">
-        <v>0.02078630007101417</v>
+        <v>0.02085659339416021</v>
       </c>
       <c r="T4">
-        <v>0.02078630007101417</v>
+        <v>0.01829835793289556</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H5">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I5">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J5">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N5">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O5">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P5">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q5">
-        <v>206.7624087794227</v>
+        <v>229.959769558437</v>
       </c>
       <c r="R5">
-        <v>206.7624087794227</v>
+        <v>1379.758617350622</v>
       </c>
       <c r="S5">
-        <v>0.03657169287580204</v>
+        <v>0.03061560615285012</v>
       </c>
       <c r="T5">
-        <v>0.03657169287580204</v>
+        <v>0.02686034622865449</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H6">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I6">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J6">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N6">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O6">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P6">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q6">
-        <v>23.99199334351585</v>
+        <v>26.55999225327301</v>
       </c>
       <c r="R6">
-        <v>23.99199334351585</v>
+        <v>159.359953519638</v>
       </c>
       <c r="S6">
-        <v>0.004243652495717449</v>
+        <v>0.003536054431652752</v>
       </c>
       <c r="T6">
-        <v>0.004243652495717449</v>
+        <v>0.003102327807699438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.19389935017493</v>
+        <v>2.3842205</v>
       </c>
       <c r="H7">
-        <v>2.19389935017493</v>
+        <v>4.768441</v>
       </c>
       <c r="I7">
-        <v>0.07759155676090707</v>
+        <v>0.0684902599354226</v>
       </c>
       <c r="J7">
-        <v>0.07759155676090707</v>
+        <v>0.05735520746201143</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N7">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O7">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P7">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q7">
-        <v>32.09001229356039</v>
+        <v>35.8343310444745</v>
       </c>
       <c r="R7">
-        <v>32.09001229356039</v>
+        <v>143.337324177898</v>
       </c>
       <c r="S7">
-        <v>0.005676012776736422</v>
+        <v>0.004770789986940265</v>
       </c>
       <c r="T7">
-        <v>0.005676012776736422</v>
+        <v>0.00279040848630471</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H8">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I8">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J8">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N8">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O8">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P8">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q8">
-        <v>156.7394713496059</v>
+        <v>169.005662416896</v>
       </c>
       <c r="R8">
-        <v>156.7394713496059</v>
+        <v>1014.033974501376</v>
       </c>
       <c r="S8">
-        <v>0.02772374263558028</v>
+        <v>0.02250050436253534</v>
       </c>
       <c r="T8">
-        <v>0.02772374263558028</v>
+        <v>0.01974062948418177</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H9">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I9">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J9">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N9">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O9">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P9">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q9">
-        <v>136.5388197927049</v>
+        <v>152.556259314816</v>
       </c>
       <c r="R9">
-        <v>136.5388197927049</v>
+        <v>1373.006333833344</v>
       </c>
       <c r="S9">
-        <v>0.02415069457045444</v>
+        <v>0.0203105193586811</v>
       </c>
       <c r="T9">
-        <v>0.02415069457045444</v>
+        <v>0.02672889666144224</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H10">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I10">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J10">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N10">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O10">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P10">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q10">
-        <v>591.0636544841145</v>
+        <v>769.8909401212161</v>
       </c>
       <c r="R10">
-        <v>591.0636544841145</v>
+        <v>6929.018461090945</v>
       </c>
       <c r="S10">
-        <v>0.1045460757080979</v>
+        <v>0.1024991364735601</v>
       </c>
       <c r="T10">
-        <v>0.1045460757080979</v>
+        <v>0.1348901413256012</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H11">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I11">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J11">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N11">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O11">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P11">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q11">
-        <v>1039.925256923684</v>
+        <v>1130.130762869376</v>
       </c>
       <c r="R11">
-        <v>1039.925256923684</v>
+        <v>10171.17686582439</v>
       </c>
       <c r="S11">
-        <v>0.1839397564311385</v>
+        <v>0.1504595277846479</v>
       </c>
       <c r="T11">
-        <v>0.1839397564311385</v>
+        <v>0.1980066141522045</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H12">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I12">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J12">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N12">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O12">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P12">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q12">
-        <v>120.6693227707748</v>
+        <v>130.528328344704</v>
       </c>
       <c r="R12">
-        <v>120.6693227707748</v>
+        <v>1174.754955102336</v>
       </c>
       <c r="S12">
-        <v>0.02134373186090971</v>
+        <v>0.0173778391762384</v>
       </c>
       <c r="T12">
-        <v>0.02134373186090971</v>
+        <v>0.02286945298335301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0343623817485</v>
+        <v>11.717184</v>
       </c>
       <c r="H13">
-        <v>11.0343623817485</v>
+        <v>35.151552</v>
       </c>
       <c r="I13">
-        <v>0.3902518841603146</v>
+        <v>0.3365934391853332</v>
       </c>
       <c r="J13">
-        <v>0.3902518841603146</v>
+        <v>0.4228058096077277</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N13">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O13">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P13">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q13">
-        <v>161.3988465121138</v>
+        <v>176.106803194176</v>
       </c>
       <c r="R13">
-        <v>161.3988465121138</v>
+        <v>1056.640819165056</v>
       </c>
       <c r="S13">
-        <v>0.02854788295413385</v>
+        <v>0.02344591202967036</v>
       </c>
       <c r="T13">
-        <v>0.02854788295413385</v>
+        <v>0.02057007500094503</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H14">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I14">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J14">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N14">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O14">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P14">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q14">
-        <v>24.87146276721802</v>
+        <v>25.954113801088</v>
       </c>
       <c r="R14">
-        <v>24.87146276721802</v>
+        <v>155.724682806528</v>
       </c>
       <c r="S14">
-        <v>0.004399211167369447</v>
+        <v>0.003455391035162954</v>
       </c>
       <c r="T14">
-        <v>0.004399211167369447</v>
+        <v>0.003031558450827062</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H15">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I15">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J15">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N15">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O15">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P15">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q15">
-        <v>21.66601777786773</v>
+        <v>23.427987315348</v>
       </c>
       <c r="R15">
-        <v>21.66601777786773</v>
+        <v>210.851885838132</v>
       </c>
       <c r="S15">
-        <v>0.003832238909825966</v>
+        <v>0.003119076149614915</v>
       </c>
       <c r="T15">
-        <v>0.003832238909825966</v>
+        <v>0.004104743094449356</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H16">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I16">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J16">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N16">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O16">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P16">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q16">
-        <v>93.79014455629931</v>
+        <v>118.2317609278813</v>
       </c>
       <c r="R16">
-        <v>93.79014455629931</v>
+        <v>1064.085848350932</v>
       </c>
       <c r="S16">
-        <v>0.01658940027705568</v>
+        <v>0.01574074036635398</v>
       </c>
       <c r="T16">
-        <v>0.01658940027705568</v>
+        <v>0.02071501054191599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H17">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I17">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J17">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N17">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O17">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P17">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q17">
-        <v>165.0156280709701</v>
+        <v>173.553607673028</v>
       </c>
       <c r="R17">
-        <v>165.0156280709701</v>
+        <v>1561.982469057252</v>
       </c>
       <c r="S17">
-        <v>0.02918761154479111</v>
+        <v>0.02310599331842454</v>
       </c>
       <c r="T17">
-        <v>0.02918761154479111</v>
+        <v>0.03040777524008371</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H18">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I18">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J18">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N18">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O18">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P18">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q18">
-        <v>19.14784159086859</v>
+        <v>20.045169136212</v>
       </c>
       <c r="R18">
-        <v>19.14784159086859</v>
+        <v>180.406522225908</v>
       </c>
       <c r="S18">
-        <v>0.003386829288890769</v>
+        <v>0.002668705942434781</v>
       </c>
       <c r="T18">
-        <v>0.003386829288890769</v>
+        <v>0.003512050287607617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.75093568183289</v>
+        <v>1.799402</v>
       </c>
       <c r="H19">
-        <v>1.75093568183289</v>
+        <v>5.398206</v>
       </c>
       <c r="I19">
-        <v>0.06192527716952995</v>
+        <v>0.05169048362276865</v>
       </c>
       <c r="J19">
-        <v>0.06192527716952995</v>
+        <v>0.06493007359274758</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N19">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O19">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P19">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q19">
-        <v>25.61081370974055</v>
+        <v>27.044632386178</v>
       </c>
       <c r="R19">
-        <v>25.61081370974055</v>
+        <v>162.267794317068</v>
       </c>
       <c r="S19">
-        <v>0.004529985981596991</v>
+        <v>0.003600576810777478</v>
       </c>
       <c r="T19">
-        <v>0.004529985981596991</v>
+        <v>0.003158935977863834</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H20">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I20">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J20">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2046695519863</v>
+        <v>14.423744</v>
       </c>
       <c r="N20">
-        <v>14.2046695519863</v>
+        <v>28.847488</v>
       </c>
       <c r="O20">
-        <v>0.07104063749809195</v>
+        <v>0.06684772114689447</v>
       </c>
       <c r="P20">
-        <v>0.07104063749809195</v>
+        <v>0.04668958901604686</v>
       </c>
       <c r="Q20">
-        <v>188.862131177375</v>
+        <v>272.757066535808</v>
       </c>
       <c r="R20">
-        <v>188.862131177375</v>
+        <v>1091.028266143232</v>
       </c>
       <c r="S20">
-        <v>0.033405530038378</v>
+        <v>0.03631340795175474</v>
       </c>
       <c r="T20">
-        <v>0.033405530038378</v>
+        <v>0.02123951001670661</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H21">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I21">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J21">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>12.37396553321</v>
+        <v>13.019874</v>
       </c>
       <c r="N21">
-        <v>12.37396553321</v>
+        <v>39.059622</v>
       </c>
       <c r="O21">
-        <v>0.06188488909520136</v>
+        <v>0.06034140002205402</v>
       </c>
       <c r="P21">
-        <v>0.06188488909520136</v>
+        <v>0.06321790300431507</v>
       </c>
       <c r="Q21">
-        <v>164.5214971854545</v>
+        <v>246.209488944468</v>
       </c>
       <c r="R21">
-        <v>164.5214971854545</v>
+        <v>1477.256933666808</v>
       </c>
       <c r="S21">
-        <v>0.0291002107300482</v>
+        <v>0.03277900634138022</v>
       </c>
       <c r="T21">
-        <v>0.0291002107300482</v>
+        <v>0.02875838730629766</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H22">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I22">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J22">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.5657280444015</v>
+        <v>65.70614066666667</v>
       </c>
       <c r="N22">
-        <v>53.5657280444015</v>
+        <v>197.118422</v>
       </c>
       <c r="O22">
-        <v>0.2678938397262179</v>
+        <v>0.3045191157666107</v>
       </c>
       <c r="P22">
-        <v>0.2678938397262179</v>
+        <v>0.3190356855568045</v>
       </c>
       <c r="Q22">
-        <v>712.198021890535</v>
+        <v>1242.521649138335</v>
       </c>
       <c r="R22">
-        <v>712.198021890535</v>
+        <v>7455.129894830008</v>
       </c>
       <c r="S22">
-        <v>0.1259720636700502</v>
+        <v>0.1654226455325364</v>
       </c>
       <c r="T22">
-        <v>0.1259720636700502</v>
+        <v>0.1451321757563917</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H23">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I23">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J23">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>94.24425453379919</v>
+        <v>96.450714</v>
       </c>
       <c r="N23">
-        <v>94.24425453379919</v>
+        <v>289.352142</v>
       </c>
       <c r="O23">
-        <v>0.4713359855440863</v>
+        <v>0.4470067157244936</v>
       </c>
       <c r="P23">
-        <v>0.4713359855440863</v>
+        <v>0.4683157365692581</v>
       </c>
       <c r="Q23">
-        <v>1253.050674451443</v>
+        <v>1823.910200841348</v>
       </c>
       <c r="R23">
-        <v>1253.050674451443</v>
+        <v>10943.46120504809</v>
       </c>
       <c r="S23">
-        <v>0.2216369246923547</v>
+        <v>0.2428255884685711</v>
       </c>
       <c r="T23">
-        <v>0.2216369246923547</v>
+        <v>0.2130410009483153</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H24">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I24">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J24">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.9357766761738</v>
+        <v>11.139906</v>
       </c>
       <c r="N24">
-        <v>10.9357766761738</v>
+        <v>33.419718</v>
       </c>
       <c r="O24">
-        <v>0.05469219426533697</v>
+        <v>0.05162857368313087</v>
       </c>
       <c r="P24">
-        <v>0.05469219426533697</v>
+        <v>0.05408973212683835</v>
       </c>
       <c r="Q24">
-        <v>145.3996575973291</v>
+        <v>210.658763913492</v>
       </c>
       <c r="R24">
-        <v>145.3996575973291</v>
+        <v>1263.952583480952</v>
       </c>
       <c r="S24">
-        <v>0.02571798061981905</v>
+        <v>0.02804597413280494</v>
       </c>
       <c r="T24">
-        <v>0.02571798061981905</v>
+        <v>0.02460590104817828</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.2957778768578</v>
+        <v>18.910282</v>
       </c>
       <c r="H25">
-        <v>13.2957778768578</v>
+        <v>37.820564</v>
       </c>
       <c r="I25">
-        <v>0.4702312819092484</v>
+        <v>0.5432258172564757</v>
       </c>
       <c r="J25">
-        <v>0.4702312819092484</v>
+        <v>0.4549089093375132</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.6269300325932</v>
+        <v>15.029789</v>
       </c>
       <c r="N25">
-        <v>14.6269300325932</v>
+        <v>30.059578</v>
       </c>
       <c r="O25">
-        <v>0.0731524538710656</v>
+        <v>0.06965647365681629</v>
       </c>
       <c r="P25">
-        <v>0.0731524538710656</v>
+        <v>0.04865135372673711</v>
       </c>
       <c r="Q25">
-        <v>194.4764127336996</v>
+        <v>284.217548390498</v>
       </c>
       <c r="R25">
-        <v>194.4764127336996</v>
+        <v>1136.870193561992</v>
       </c>
       <c r="S25">
-        <v>0.03439857215859834</v>
+        <v>0.0378391948294282</v>
       </c>
       <c r="T25">
-        <v>0.03439857215859834</v>
+        <v>0.02213193426162353</v>
       </c>
     </row>
   </sheetData>
